--- a/Assignment 1 Web Testing/Test Case for CURA Webhealth App.xlsx
+++ b/Assignment 1 Web Testing/Test Case for CURA Webhealth App.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="78">
   <si>
     <t>Created By</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>Make appointment entering valid data but entering visit date last may</t>
+  </si>
+  <si>
+    <t>test3</t>
   </si>
 </sst>
 </file>
@@ -734,10 +737,26 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -745,24 +764,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1046,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C33" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="D38" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,22 +1072,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D1" s="2"/>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="58" t="s">
+      <c r="F1" s="56"/>
+      <c r="G1" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="56"/>
+      <c r="H1" s="54"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1137,22 +1140,22 @@
       <c r="AB2" s="2"/>
     </row>
     <row r="3" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="52"/>
+      <c r="B3" s="56"/>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="60">
+      <c r="F3" s="56"/>
+      <c r="G3" s="58">
         <v>44752</v>
       </c>
-      <c r="H3" s="56"/>
+      <c r="H3" s="54"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1205,15 +1208,15 @@
       <c r="AB4" s="2"/>
     </row>
     <row r="5" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="52"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="7" t="s">
         <v>60</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="59" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="8" t="s">
@@ -1251,8 +1254,8 @@
       <c r="B6" s="2"/>
       <c r="C6" s="11"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="62">
+      <c r="E6" s="60"/>
+      <c r="F6" s="52">
         <v>9</v>
       </c>
       <c r="G6" s="45">
@@ -1412,10 +1415,10 @@
       <c r="C11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="56"/>
+      <c r="E11" s="54"/>
       <c r="F11" s="16" t="s">
         <v>14</v>
       </c>
@@ -2315,7 +2318,7 @@
       </c>
       <c r="E35" s="36"/>
       <c r="F35" s="40">
-        <v>44752</v>
+        <v>44783</v>
       </c>
       <c r="G35" s="23"/>
       <c r="H35" s="23"/>
@@ -2524,7 +2527,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="40">
-        <v>44752</v>
+        <v>44783</v>
       </c>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
@@ -2803,7 +2806,9 @@
         <v>45</v>
       </c>
       <c r="E50" s="2"/>
-      <c r="F50" s="23"/>
+      <c r="F50" s="23" t="s">
+        <v>77</v>
+      </c>
       <c r="G50" s="23"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
@@ -2874,7 +2879,7 @@
       <c r="F52" s="30"/>
       <c r="G52" s="43"/>
       <c r="H52" s="43"/>
-      <c r="I52" s="61" t="s">
+      <c r="I52" s="51" t="s">
         <v>8</v>
       </c>
       <c r="J52" s="2"/>
@@ -8533,15 +8538,15 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
